--- a/информатика/лаб. 4/лаб4.xlsx
+++ b/информатика/лаб. 4/лаб4.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="задание 1" sheetId="1" r:id="rId1"/>
+    <sheet name="задание 2" sheetId="2" r:id="rId2"/>
+    <sheet name="задание 3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>P(ai)</t>
   </si>
@@ -46,6 +48,9 @@
   </si>
   <si>
     <t>H(B/A)</t>
+  </si>
+  <si>
+    <t>H(A/B)</t>
   </si>
 </sst>
 </file>
@@ -170,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +219,33 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,21 +526,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -547,15 +579,15 @@
         <f t="shared" si="0"/>
         <v>0.26855508874019846</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <f>SUM(I2:L5)</f>
         <v>3.3401555694340224</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>0.2</v>
       </c>
@@ -590,15 +622,15 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <f>SUM(G2:G5)</f>
         <v>1.961443855909897</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>0.06</v>
       </c>
@@ -634,15 +666,15 @@
         <f>-E4*LOG(E4, 2)</f>
         <v>0.33219280948873625</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f>SUM(B7:E7)</f>
         <v>1.9656780552463373</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>0.02</v>
       </c>
@@ -680,7 +712,7 @@
         <v>0.35028670282511704</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -705,7 +737,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <f>-B6*LOG(B6, 2)</f>
@@ -728,13 +760,13 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -785,29 +817,29 @@
         <v>1.378711713524126</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <f>B3/$F3</f>
         <v>0.57142857142857151</v>
       </c>
       <c r="C10" s="17">
-        <f>C3/$F3</f>
+        <f t="shared" ref="C10:E12" si="8">C3/$F3</f>
         <v>0.4285714285714286</v>
       </c>
       <c r="D10" s="17">
-        <f>D3/$F3</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E10" s="18">
-        <f>E3/$F3</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:J12" si="8">-B10*LOG(B10, 2)</f>
+        <f t="shared" ref="I10:J10" si="9">-B10*LOG(B10, 2)</f>
         <v>0.46134566974720231</v>
       </c>
       <c r="J10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.52388246628704915</v>
       </c>
       <c r="K10">
@@ -817,98 +849,98 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M12" si="9">SUM(I10:L10)</f>
+        <f t="shared" ref="M10:M12" si="10">SUM(I10:L10)</f>
         <v>0.98522813603425141</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N12" si="10">F3*M10</f>
+        <f t="shared" ref="N10:N12" si="11">F3*M10</f>
         <v>0.34482984761198798</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <f>B4/$F4</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="C11" s="17">
-        <f>C4/$F4</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D11" s="17">
-        <f>D4/$F4</f>
+        <f t="shared" si="8"/>
         <v>0.23809523809523808</v>
       </c>
       <c r="E11" s="18">
-        <f>E4/$F4</f>
+        <f t="shared" si="8"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I12" si="11">-B11*LOG(B11, 2)</f>
+        <f t="shared" ref="I11:I12" si="12">-B11*LOG(B11, 2)</f>
         <v>0.51638712058788683</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K10:K12" si="12">-D11*LOG(D11, 2)</f>
+        <f t="shared" ref="K11:K12" si="13">-D11*LOG(D11, 2)</f>
         <v>0.49294983997414238</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L10:L12" si="13">-E11*LOG(E11, 2)</f>
+        <f t="shared" ref="L11:L12" si="14">-E11*LOG(E11, 2)</f>
         <v>0.50970920375780859</v>
       </c>
       <c r="M11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5190461643198379</v>
       </c>
       <c r="N11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.31899969450716598</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <f>B5/$F5</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="C12" s="20">
-        <f>C5/$F5</f>
+        <f t="shared" si="8"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="D12" s="20">
-        <f>D5/$F5</f>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="E12" s="21">
-        <f>E5/$F5</f>
+        <f t="shared" si="8"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="I12">
+        <f t="shared" si="12"/>
+        <v>0.33219280948873625</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="15">-C12*LOG(C12, 2)</f>
+        <v>0.46438561897747249</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="13"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="14"/>
+        <v>0.47437306193753581</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>1.6814963295286756</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="11"/>
-        <v>0.33219280948873625</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J11:J12" si="14">-C12*LOG(C12, 2)</f>
-        <v>0.46438561897747249</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="12"/>
-        <v>0.41054483912493089</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="13"/>
-        <v>0.47437306193753581</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="9"/>
-        <v>1.6814963295286756</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="10"/>
         <v>0.33629926590573511</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -917,55 +949,106 @@
         <v>0</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" ref="C14:E14" si="15">C2/C$6</f>
+        <f t="shared" ref="C14:E14" si="16">C2/C$6</f>
         <v>0.32142857142857145</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:K14" si="17">-C14*LOG(C14, 2)</f>
+        <v>0.52631676019777229</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <f>-E14*LOG(E14, 2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(I20:L20)</f>
+        <v>1.3744775141876859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
-        <f t="shared" ref="B15:E15" si="16">B3/B$6</f>
+        <f t="shared" ref="B15:E15" si="18">B3/B$6</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="C15" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.5357142857142857</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I17" si="19">-B15*LOG(B15, 2)</f>
+        <v>0.34673344797874411</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J17" si="20">-C15*LOG(C15, 2)</f>
+        <v>0.48239160345486726</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
-        <f t="shared" ref="B16:E16" si="17">B4/B$6</f>
+        <f t="shared" ref="B16:E16" si="21">B4/B$6</f>
         <v>0.21428571428571425</v>
       </c>
       <c r="C16" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D16" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.3125</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="19"/>
+        <v>0.47622694742923877</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K17" si="22">-D16*LOG(D16, 2)</f>
+        <v>0.52439747034769935</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L17" si="23">-E16*LOG(E16, 2)</f>
+        <v>0.53050958113222912</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
         <f>B5/B$6</f>
         <v>7.1428571428571425E-2</v>
@@ -982,18 +1065,1303 @@
         <f>E5/E$6</f>
         <v>0.39285714285714285</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="19"/>
+        <v>0.27195392300411458</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="20"/>
+        <v>0.40105070315108637</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="22"/>
+        <v>0.45281953111478324</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="23"/>
+        <v>0.52954129777226344</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="I19">
+        <f>SUM(I14:I17)</f>
+        <v>1.0949143184120975</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J14:J17)</f>
+        <v>1.4097590668037259</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K14:K17)</f>
+        <v>1.4772170014624826</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L14:L17)</f>
+        <v>1.5600508789044927</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>I19*B6</f>
+        <v>0.30657600915538735</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:L20" si="24">J19*C6</f>
+        <v>0.39473253870504321</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="24"/>
+        <v>0.23635472023399723</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="24"/>
+        <v>0.43681424609325797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23">
+        <f>B9*$F2</f>
+        <v>0.10890000000000001</v>
+      </c>
+      <c r="C2" s="24">
+        <f t="shared" ref="C2:E2" si="0">C9*$F2</f>
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="D2" s="24">
+        <f t="shared" si="0"/>
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="shared" si="0"/>
+        <v>7.5900000000000009E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G2" s="22">
+        <f>-F2*LOG(F2, 2)</f>
+        <v>0.52782248323736947</v>
+      </c>
+      <c r="I2">
+        <f>-B2*LOG(B2, 2)</f>
+        <v>0.34836283893666392</v>
+      </c>
+      <c r="J2">
+        <f>-C2*LOG(C2, 2)</f>
+        <v>0.27471017017679855</v>
+      </c>
+      <c r="K2">
+        <f>-D2*LOG(D2, 2)</f>
+        <v>0.27471017017679855</v>
+      </c>
+      <c r="L2">
+        <f>-E2*LOG(E2, 2)</f>
+        <v>0.28232950348376934</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SUM(I2:L5)</f>
+        <v>3.8704555219749763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="26">
+        <f t="shared" ref="B3:E3" si="1">B10*$F3</f>
+        <v>0.1173</v>
+      </c>
+      <c r="C3" s="27">
+        <f t="shared" si="1"/>
+        <v>3.2200000000000006E-2</v>
+      </c>
+      <c r="D3" s="27">
+        <f t="shared" si="1"/>
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="E3" s="28">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G5" si="2">-F3*LOG(F3, 2)</f>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="3">-B3*LOG(B3, 2)</f>
+        <v>0.3626593520624064</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="4">-C3*LOG(C3, 2)</f>
+        <v>0.15960881514620162</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="5">-D3*LOG(D3, 2)</f>
+        <v>0.16757546406199517</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="6">-E3*LOG(E3, 2)</f>
+        <v>0.20434222711583344</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(G2:G5)</f>
+        <v>1.9707166054953598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="26">
+        <f t="shared" ref="B4:E4" si="7">B11*$F4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" si="7"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="E4" s="28">
+        <f t="shared" si="7"/>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.25632207065618612</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0.28027241956246546</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>0.22320578526728813</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>0.23691691843876841</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(B7:E7)</f>
+        <v>1.9549088017643326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="29">
+        <f t="shared" ref="B5:E5" si="8">B12*$F5</f>
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="C5" s="30">
+        <f t="shared" si="8"/>
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="D5" s="30">
+        <f t="shared" si="8"/>
+        <v>5.3200000000000004E-2</v>
+      </c>
+      <c r="E5" s="31">
+        <f t="shared" si="8"/>
+        <v>1.14E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="2"/>
+        <v>0.45522644850291644</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.26004837296919969</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.24064116593184842</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0.22516527302336745</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>7.3584974965385672E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:E6" si="9">SUM(C2:C5)</f>
+        <v>0.23870000000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="9"/>
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="9"/>
+        <v>0.1908</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <f>-B6*LOG(B6, 2)</f>
+        <v>0.53053276221344592</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:E7" si="10">-C6*LOG(C6, 2)</f>
+        <v>0.49332833844523355</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="10"/>
+        <v>0.47506109209346975</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="10"/>
+        <v>0.45598660901218335</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="I9">
+        <f>-B9*LOG(B9, 2)</f>
+        <v>0.52782248323736947</v>
+      </c>
+      <c r="J9">
+        <f>-C9*LOG(C9, 2)</f>
+        <v>0.48057340565023404</v>
+      </c>
+      <c r="K9">
+        <f>-D9*LOG(D9, 2)</f>
+        <v>0.48057340565023404</v>
+      </c>
+      <c r="L9">
+        <f>-E9*LOG(E9, 2)</f>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="M9">
+        <f>SUM(I9:L9)</f>
+        <v>1.9766369682929112</v>
+      </c>
+      <c r="N9">
+        <f>F2*M9</f>
+        <v>0.65229019953666079</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(N9:N12)</f>
+        <v>1.8997389164796166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I12" si="11">-B10*LOG(B10, 2)</f>
+        <v>0.49542973237964688</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J12" si="12">-C10*LOG(C10, 2)</f>
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K12" si="13">-D10*LOG(D10, 2)</f>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L12" si="14">-E10*LOG(E10, 2)</f>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M12" si="15">SUM(I10:L10)</f>
+        <v>1.7674703679624471</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N12" si="16">F3*M10</f>
+        <v>0.40651818463136286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="11"/>
+        <v>0.50528828262474446</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="12"/>
+        <v>0.52108967824986185</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="13"/>
+        <v>0.47282314106915252</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="14"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="M11">
+        <f>SUM(I11:L11)</f>
+        <v>1.9868687756988326</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="16"/>
+        <v>0.49671719392470814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="11"/>
+        <v>0.53010061049041546</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="12"/>
+        <v>0.52379456261023327</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="13"/>
+        <v>0.51422035496079377</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="14"/>
+        <v>0.2435336213432141</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="15"/>
+        <v>1.8116491494046567</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="16"/>
+        <v>0.34421333838688478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13">
+        <f>B2/B$6</f>
+        <v>0.3044450656975119</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:E14" si="17">C2/C$6</f>
+        <v>0.30414746543778798</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="17"/>
+        <v>0.34116541353383462</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="17"/>
+        <v>0.39779874213836486</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="18">-B14*LOG(B14, 2)</f>
+        <v>0.52235045370396671</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="19">-C14*LOG(C14, 2)</f>
+        <v>0.52226898370358388</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14" si="20">-D14*LOG(D14, 2)</f>
+        <v>0.52930336578428039</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14" si="21">-E14*LOG(E14, 2)</f>
+        <v>0.52902832278188916</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(I20:L20)</f>
+        <v>1.915546720210644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <f t="shared" ref="B15:E15" si="22">B3/B$6</f>
+        <v>0.32792843164663127</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="22"/>
+        <v>0.13489736070381234</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="22"/>
+        <v>0.16212406015037595</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="22"/>
+        <v>0.24109014675052415</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I17" si="23">-B15*LOG(B15, 2)</f>
+        <v>0.52748832936146473</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J17" si="24">-C15*LOG(C15, 2)</f>
+        <v>0.38986227201316526</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K16" si="25">-D15*LOG(D15, 2)</f>
+        <v>0.42554807797147653</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:L17" si="26">-E15*LOG(E15, 2)</f>
+        <v>0.49480266579042076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <f t="shared" ref="B16:E16" si="27">B4/B$6</f>
+        <v>0.1817165222253285</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="27"/>
+        <v>0.31420192710515288</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="27"/>
+        <v>0.24671052631578946</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="27"/>
+        <v>0.30136268343815514</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="23"/>
+        <v>0.44706598317070606</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="24"/>
+        <v>0.52479139056300794</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="25"/>
+        <v>0.49813540039828241</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="26"/>
+        <v>0.52148621768863745</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <f t="shared" ref="B17:E17" si="28">B5/B$6</f>
+        <v>0.18590998043052834</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="28"/>
+        <v>0.24675324675324672</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="28"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="28"/>
+        <v>5.9748427672955975E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="23"/>
+        <v>0.451263733654861</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="24"/>
+        <v>0.49816001971136359</v>
+      </c>
+      <c r="K17">
+        <f>-D17*LOG(D17, 2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="26"/>
+        <v>0.24287469621061203</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="I19">
+        <f>SUM(I14:I17)</f>
+        <v>1.9481684998909985</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J14:J17)</f>
+        <v>1.9350826659911207</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K14:K17)</f>
+        <v>1.9529868441540392</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L14:L17)</f>
+        <v>1.7881919024715596</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>I19*B6</f>
+        <v>0.69685987241101022</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:L20" si="29">J19*C6</f>
+        <v>0.46190423237208056</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="29"/>
+        <v>0.41559560043597954</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="29"/>
+        <v>0.34118701499157356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23">
+        <f>B14*B$6</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C2" s="24">
+        <f t="shared" ref="C2:E2" si="0">C14*C$6</f>
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="24">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="shared" si="0"/>
+        <v>0.1275</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUM(B2:E2)</f>
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="G2" s="22">
+        <f>-F2*LOG(F2, 2)</f>
+        <v>0.52633065838292592</v>
+      </c>
+      <c r="I2">
+        <f>-B2*LOG(B2, 2)</f>
+        <v>0.33030633879366528</v>
+      </c>
+      <c r="J2">
+        <f>-C2*LOG(C2, 2)</f>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="K2">
+        <f>-D2*LOG(D2, 2)</f>
+        <v>0.25632207065618612</v>
+      </c>
+      <c r="L2">
+        <f>-E2*LOG(E2, 2)</f>
+        <v>0.37885743309491166</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SUM(I2:L5)</f>
+        <v>3.8298794319151148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="26">
+        <f t="shared" ref="B3:E3" si="1">B15*B$6</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C3" s="27">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="D3" s="27">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E3" s="28">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F5" si="2">SUM(B3:E3)</f>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G5" si="3">-F3*LOG(F3, 2)</f>
+        <v>0.51649110309473756</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:L5" si="4">-B3*LOG(B3, 2)</f>
+        <v>0.25881175091003988</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="4"/>
+        <v>0.35028670282511709</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="4"/>
+        <v>0.28027241956246546</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="4"/>
+        <v>0.16927754437009923</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(G2:G5)</f>
+        <v>1.9569749197643962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="26">
+        <f t="shared" ref="B4:E4" si="5">B16*B$6</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" si="5"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="E4" s="28">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16349999999999998</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="3"/>
+        <v>0.42716622457331477</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.25881175091003988</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.22320578526728813</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>9.0883405335803538E-2</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(B7:E7)</f>
+        <v>1.9854752972273344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="29">
+        <f t="shared" ref="B5:E5" si="6">B17*B$6</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C5" s="30">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="30">
+        <f t="shared" si="6"/>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="E5" s="31">
+        <f t="shared" si="6"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22899999999999998</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="3"/>
+        <v>0.48698693371341778</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.26615092812399033</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.23691691843876841</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.27447595161191857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <f>-B6*LOG(B6, 2)</f>
+        <v>0.52108967824986185</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:E7" si="7">-C6*LOG(C6, 2)</f>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13">
+        <f>B2/$F2</f>
+        <v>0.30793157076205291</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" ref="C9:E9" si="8">C2/$F2</f>
+        <v>9.3312597200622072E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="8"/>
+        <v>0.20217729393468117</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="8"/>
+        <v>0.39657853810264387</v>
+      </c>
+      <c r="I9">
+        <f>-B9*LOG(B9, 2)</f>
+        <v>0.52327375557569344</v>
+      </c>
+      <c r="J9">
+        <f>-C9*LOG(C9, 2)</f>
+        <v>0.31929558305313488</v>
+      </c>
+      <c r="K9">
+        <f>-D9*LOG(D9, 2)</f>
+        <v>0.46628293135137489</v>
+      </c>
+      <c r="L9">
+        <f>-E9*LOG(E9, 2)</f>
+        <v>0.5291632660491723</v>
+      </c>
+      <c r="M9">
+        <f>SUM(I9:L9)</f>
+        <v>1.8380155360293755</v>
+      </c>
+      <c r="N9">
+        <f>F2*M9</f>
+        <v>0.59092199483344421</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(N9:N12)</f>
+        <v>1.8729045121507184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <f t="shared" ref="B10:E10" si="9">B3/$F3</f>
+        <v>0.23076923076923075</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="9"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="9"/>
+        <v>0.26223776223776218</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="9"/>
+        <v>0.12237762237762237</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:L12" si="10">-B10*LOG(B10, 2)</f>
+        <v>0.4881870501738314</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="10"/>
+        <v>0.5301967781745115</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="10"/>
+        <v>0.50639492472443404</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="10"/>
+        <v>0.37087619298660768</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M12" si="11">SUM(I10:L10)</f>
+        <v>1.8956549460593846</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N12" si="12">F3*M10</f>
+        <v>0.54215731457298399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <f t="shared" ref="B11:E11" si="13">B4/$F4</f>
+        <v>0.40366972477064228</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="13"/>
+        <v>0.1834862385321101</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="13"/>
+        <v>0.32110091743119268</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="13"/>
+        <v>9.1743119266055051E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="10"/>
+        <v>0.52830384468021729</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="10"/>
+        <v>0.44885435410817687</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>0.52625271352402381</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>0.31617029632014354</v>
+      </c>
+      <c r="M11">
+        <f>SUM(I11:L11)</f>
+        <v>1.8195812086325616</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="12"/>
+        <v>0.29750152761142379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <f t="shared" ref="B12:E12" si="14">B5/$F5</f>
+        <v>0.30131004366812231</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="14"/>
+        <v>0.13100436681222707</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="14"/>
+        <v>0.25109170305676859</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="14"/>
+        <v>0.31659388646288211</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="10"/>
+        <v>0.52147106489517669</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>0.38414583307708633</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>0.50060497766931311</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>0.52532255725303789</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="11"/>
+        <v>1.9315444328946141</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="12"/>
+        <v>0.44232367513286658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:L17" si="15">-B14*LOG(B14, 2)</f>
+        <v>0.52782248323736947</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="15"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="15"/>
+        <v>0.50528828262474446</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="15"/>
+        <v>0.49542973237964688</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(I20:L20)</f>
+        <v>1.8444041346877804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="15"/>
+        <v>0.48057340565023404</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="15"/>
+        <v>0.47437306193753581</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="15"/>
+        <v>0.52108967824986185</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="15"/>
+        <v>0.39711017748039695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="15"/>
+        <v>0.48057340565023404</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="15"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="15"/>
+        <v>0.47282314106915252</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="15"/>
+        <v>0.2435336213432141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="15"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="15"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="K17">
+        <f>-D17*LOG(D17, 2)</f>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="15"/>
+        <v>0.5179038064476742</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="I19">
+        <f>SUM(I14:I17)</f>
+        <v>1.9766369682929112</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J14:J17)</f>
+        <v>1.7060075793123286</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K14:K17)</f>
+        <v>1.9868687756988326</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L14:L17)</f>
+        <v>1.6539773376509321</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>I19*B6</f>
+        <v>0.59299109048787335</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:L20" si="16">J19*C6</f>
+        <v>0.34120151586246572</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="16"/>
+        <v>0.49671719392470814</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="16"/>
+        <v>0.41349433441273303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
